--- a/ProyectoVenta/Resources/PlantillaProductos.xlsx
+++ b/ProyectoVenta/Resources/PlantillaProductos.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83012AD2-3037-47A5-BE25-C9AF7FA5A604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,12 +28,6 @@
     <t>Descripcion</t>
   </si>
   <si>
-    <t>Categoria</t>
-  </si>
-  <si>
-    <t>Almacen</t>
-  </si>
-  <si>
     <t>20202020</t>
   </si>
   <si>
@@ -43,13 +38,19 @@
   </si>
   <si>
     <t>alm001</t>
+  </si>
+  <si>
+    <t>Longitud</t>
+  </si>
+  <si>
+    <t>Modelo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,6 +61,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -91,10 +100,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,11 +384,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -390,7 +400,7 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -398,25 +408,28 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ProyectoVenta/Resources/PlantillaProductos.xlsx
+++ b/ProyectoVenta/Resources/PlantillaProductos.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83012AD2-3037-47A5-BE25-C9AF7FA5A604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73811AC9-D32D-4F3C-A4C1-EA498CFB8970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
     <t>Longitud</t>
   </si>
   <si>
-    <t>Modelo</t>
+    <t>Almacen</t>
   </si>
 </sst>
 </file>
@@ -388,7 +388,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
